--- a/data/trans_camb/IP16A05-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP16A05-Habitat-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,7</t>
+          <t>10,24</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>10,26</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>-17,55</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,15</t>
+          <t>39,55</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,29</t>
+          <t>-8,06</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-3,74</t>
+          <t>-8,06</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,89</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,65</t>
+          <t>-1,42</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-1,94</t>
+          <t>-11,2</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 22,03</t>
+          <t>-36,08; 82,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,3; 10,81</t>
+          <t>-36,01; 73,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 9,19</t>
+          <t>-70,09; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,51; 14,7</t>
+          <t>-3,05; 78,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 15,93</t>
+          <t>-34,21; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-14,11; 6,12</t>
+          <t>-42,65; 0,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 14,63</t>
+          <t>-4,02; 67,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 11,19</t>
+          <t>-21,9; 27,49</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 4,97</t>
+          <t>-32,27; 0,0</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>123,58%</t>
+          <t>58,37%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>11,22%</t>
+          <t>58,46%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,47%</t>
+          <t>490,83%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>34,88%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-30,39%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>58,46%</t>
+          <t>272,39%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>26,27%</t>
+          <t>-12,72%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-19,21%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-32,88; 538,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-82,17; 313,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-72,84; 319,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-56,1; 230,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-47,24; 232,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-77,19; 110,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-21,72; 228,53</t>
+          <t>-55,23; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-40,8; 171,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-65,59; 81,17</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,13</t>
+          <t>9,7</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,66</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-8,45</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>10,88</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,37</t>
+          <t>4,29</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,88</t>
+          <t>-3,74</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>6,07</t>
+          <t>5,89</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,65</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-5,94</t>
+          <t>-1,94</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,09; 12,86</t>
+          <t>-1,49; 22,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,45; 10,39</t>
+          <t>-9,3; 10,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-18,28; -0,75</t>
+          <t>-8,66; 9,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 24,42</t>
+          <t>-8,51; 14,7</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 18,1</t>
+          <t>-7,57; 15,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-16,45; 6,3</t>
+          <t>-14,11; 6,12</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 14,74</t>
+          <t>-2,78; 14,63</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 10,35</t>
+          <t>-5,28; 11,19</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-14,51; 0,24</t>
+          <t>-8,42; 4,97</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>19,77%</t>
+          <t>123,58%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-15,45%</t>
+          <t>11,22%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-78,51%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>128,51%</t>
+          <t>17,47%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>51,66%</t>
+          <t>34,88%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-34,04%</t>
+          <t>-30,39%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>61,65%</t>
+          <t>58,46%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>12,18%</t>
+          <t>26,27%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-60,34%</t>
+          <t>-19,21%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-59,04; 261,53</t>
+          <t>-32,88; 538,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-83,51; 207,75</t>
+          <t>-82,17; 313,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 161,59</t>
+          <t>-72,84; 319,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-28,15; inf</t>
+          <t>-56,1; 230,51</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-72,94; —</t>
+          <t>-47,24; 232,18</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-77,19; 110,85</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-27,43; 248,56</t>
+          <t>-21,72; 228,53</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-56,5; 191,14</t>
+          <t>-40,8; 171,73</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-91,17; 29,82</t>
+          <t>-65,59; 81,17</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>10,24</t>
+          <t>-4,67</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>10,26</t>
+          <t>9,94</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-17,55</t>
+          <t>-4,97</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>39,55</t>
+          <t>9,48</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-8,06</t>
+          <t>3,71</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-8,06</t>
+          <t>3,98</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,42</t>
+          <t>6,52</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-11,2</t>
+          <t>-0,71</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-36,08; 82,32</t>
+          <t>-15,87; 5,48</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-36,01; 73,74</t>
+          <t>-2,73; 25,78</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-70,09; 0,0</t>
+          <t>-15,58; 4,5</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 78,58</t>
+          <t>-3,62; 21,87</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-34,21; 0,0</t>
+          <t>-8,94; 15,87</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-42,65; 0,0</t>
+          <t>-7,86; 13,94</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 67,1</t>
+          <t>-5,95; 9,85</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-21,9; 27,49</t>
+          <t>-2,93; 16,88</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-32,27; 0,0</t>
+          <t>-8,6; 6,65</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>58,37%</t>
+          <t>-42,42%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>58,46%</t>
+          <t>90,17%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-45,12%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>490,83%</t>
+          <t>132,21%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>51,7%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>55,52%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>272,39%</t>
+          <t>19,72%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-12,72%</t>
+          <t>69,27%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-7,58%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,42; 164,36</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,68; 533,02</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,24; 142,99</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,68; inf</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,35; 646,85</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,01; 783,34</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-55,23; —</t>
+          <t>-48,74; 186,58</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,25; 292,47</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,31; 137,01</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-4,67</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>9,94</t>
+          <t>-1,66</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-4,97</t>
+          <t>-8,45</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>9,48</t>
+          <t>10,88</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>3,71</t>
+          <t>4,37</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>3,98</t>
+          <t>-2,88</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>1,86</t>
+          <t>6,07</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>6,52</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>-5,94</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-15,87; 5,48</t>
+          <t>-10,09; 12,86</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 25,78</t>
+          <t>-12,45; 10,39</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-15,58; 4,5</t>
+          <t>-18,28; -0,75</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 21,87</t>
+          <t>-2,64; 24,42</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-8,94; 15,87</t>
+          <t>-8,58; 18,1</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 13,94</t>
+          <t>-16,45; 6,3</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 9,85</t>
+          <t>-3,61; 14,74</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 16,88</t>
+          <t>-7,51; 10,35</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-8,6; 6,65</t>
+          <t>-14,51; 0,24</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-42,42%</t>
+          <t>19,77%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>90,17%</t>
+          <t>-15,45%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-45,12%</t>
+          <t>-78,51%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>132,21%</t>
+          <t>128,51%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>51,7%</t>
+          <t>51,66%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>55,52%</t>
+          <t>-34,04%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>19,72%</t>
+          <t>61,65%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>69,27%</t>
+          <t>12,18%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-7,58%</t>
+          <t>-60,34%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-91,42; 164,36</t>
+          <t>-59,04; 261,53</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-27,68; 533,02</t>
+          <t>-83,51; 207,75</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-87,24; 142,99</t>
+          <t>-100,0; 161,59</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-40,68; inf</t>
+          <t>-28,15; inf</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-77,35; 646,85</t>
+          <t>-72,94; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-67,01; 783,34</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-48,74; 186,58</t>
+          <t>-27,43; 248,56</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-29,25; 292,47</t>
+          <t>-56,5; 191,14</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-63,31; 137,01</t>
+          <t>-91,17; 29,82</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16A05-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP16A05-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 78,58</t>
+          <t>-0,01; 76,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-34,21; 0,0</t>
+          <t>-42,19; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-42,65; 0,0</t>
+          <t>-39,74; 0,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 67,1</t>
+          <t>-2,44; 67,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-21,9; 27,49</t>
+          <t>-21,55; 29,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-32,27; 0,0</t>
+          <t>-35,55; 0,0</t>
         </is>
       </c>
     </row>
@@ -821,7 +821,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-55,23; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,08; 16,17</t>
+          <t>-11,0; 16,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,57; 20,61</t>
+          <t>-11,73; 19,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-21,24; 2,43</t>
+          <t>-19,36; 2,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 24,66</t>
+          <t>-4,08; 24,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,09; 10,45</t>
+          <t>-11,2; 10,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 17,43</t>
+          <t>-7,33; 19,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 16,56</t>
+          <t>-4,55; 15,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,05; 12,15</t>
+          <t>-7,96; 10,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-10,9; 6,91</t>
+          <t>-10,34; 6,42</t>
         </is>
       </c>
     </row>
@@ -1007,12 +1007,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-70,95; 463,64</t>
+          <t>-64,57; 511,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-79,88; 541,57</t>
+          <t>-77,71; 447,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-82,02; —</t>
+          <t>-78,44; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1037,17 +1037,17 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-32,76; 451,16</t>
+          <t>-42,71; 402,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-72,86; 326,39</t>
+          <t>-74,77; 291,4</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-85,41; 230,46</t>
+          <t>-85,4; 179,25</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 22,03</t>
+          <t>-1,51; 22,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,3; 10,81</t>
+          <t>-8,9; 10,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 9,19</t>
+          <t>-9,23; 8,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,51; 14,7</t>
+          <t>-10,34; 14,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 15,93</t>
+          <t>-6,91; 14,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,11; 6,12</t>
+          <t>-14,08; 5,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 14,63</t>
+          <t>-2,05; 16,37</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 11,19</t>
+          <t>-4,58; 10,37</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 4,97</t>
+          <t>-9,08; 4,65</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-32,88; 538,92</t>
+          <t>-23,47; 715,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-82,17; 313,6</t>
+          <t>-78,73; 334,83</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-72,84; 319,24</t>
+          <t>-78,34; 291,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-56,1; 230,51</t>
+          <t>-55,9; 213,23</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-47,24; 232,18</t>
+          <t>-46,67; 215,32</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-77,19; 110,85</t>
+          <t>-77,4; 113,9</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-21,72; 228,53</t>
+          <t>-19,8; 247,91</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-40,8; 171,73</t>
+          <t>-37,13; 172,23</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-65,59; 81,17</t>
+          <t>-65,97; 79,41</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-15,87; 5,48</t>
+          <t>-16,31; 4,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 25,78</t>
+          <t>-4,41; 25,4</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-15,58; 4,5</t>
+          <t>-15,94; 3,87</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 21,87</t>
+          <t>-4,51; 21,87</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,94; 15,87</t>
+          <t>-9,8; 15,14</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 13,94</t>
+          <t>-8,44; 15,74</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 9,85</t>
+          <t>-6,98; 10,01</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 16,88</t>
+          <t>-3,14; 16,61</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-8,6; 6,65</t>
+          <t>-8,81; 7,06</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-91,42; 164,36</t>
+          <t>-90,68; 141,53</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-27,68; 533,02</t>
+          <t>-43,98; 567,01</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-87,24; 142,99</t>
+          <t>-90,04; 114,78</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-40,68; inf</t>
+          <t>-55,12; 838,66</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-77,35; 646,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-67,01; 783,34</t>
+          <t>-66,2; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-48,74; 186,58</t>
+          <t>-52,58; 186,37</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-29,25; 292,47</t>
+          <t>-29,87; 300,48</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-63,31; 137,01</t>
+          <t>-63,36; 154,11</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-10,09; 12,86</t>
+          <t>-9,87; 13,86</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-12,45; 10,39</t>
+          <t>-12,16; 11,18</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-18,28; -0,75</t>
+          <t>-18,21; 0,01</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 24,42</t>
+          <t>-3,75; 23,2</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 18,1</t>
+          <t>-9,26; 18,53</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-16,45; 6,3</t>
+          <t>-15,53; 6,48</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 14,74</t>
+          <t>-3,27; 15,24</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 10,35</t>
+          <t>-7,83; 9,58</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-14,51; 0,24</t>
+          <t>-13,42; 0,81</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-59,04; 261,53</t>
+          <t>-60,29; 259,59</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-83,51; 207,75</t>
+          <t>-82,43; 274,89</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 161,59</t>
+          <t>-100,0; 166,83</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-28,15; inf</t>
+          <t>-41,39; 763,19</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-72,94; —</t>
+          <t>-67,11; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-27,43; 248,56</t>
+          <t>-27,69; 263,71</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-56,5; 191,14</t>
+          <t>-57,63; 192,67</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-91,17; 29,82</t>
+          <t>-91,61; 35,15</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 8,73</t>
+          <t>-3,22; 9,07</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 9,33</t>
+          <t>-3,77; 8,83</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-9,7; 0,76</t>
+          <t>-9,49; 0,33</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>2,11; 16,15</t>
+          <t>2,35; 16,14</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 8,48</t>
+          <t>-3,29; 8,8</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 5,74</t>
+          <t>-5,9; 4,99</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>1,44; 10,34</t>
+          <t>1,31; 10,42</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 7,19</t>
+          <t>-1,43; 7,91</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 1,32</t>
+          <t>-6,58; 0,91</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-24,3; 118,08</t>
+          <t>-25,08; 119,52</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-28,1; 122,12</t>
+          <t>-29,31; 117,96</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-74,67; 12,78</t>
+          <t>-72,21; 11,45</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>16,17; 285,28</t>
+          <t>18,0; 291,42</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-30,36; 135,96</t>
+          <t>-28,68; 155,02</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-49,49; 92,45</t>
+          <t>-50,83; 81,0</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>12,21; 140,88</t>
+          <t>9,9; 147,18</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-15,71; 93,45</t>
+          <t>-12,63; 107,67</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-53,83; 18,96</t>
+          <t>-55,02; 13,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16A05-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP16A05-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-36,08; 82,32</t>
+          <t>-36,1; 82,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-36,01; 73,74</t>
+          <t>-35,8; 74,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-70,09; 0,0</t>
+          <t>-66,9; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 76,45</t>
+          <t>0,0; 77,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-42,19; 0,0</t>
+          <t>-40,45; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-39,74; 0,0</t>
+          <t>-40,88; 0,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 67,07</t>
+          <t>-3,23; 63,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-21,55; 29,59</t>
+          <t>-21,93; 29,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-35,55; 0,0</t>
+          <t>-34,64; 0,0</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,0; 16,96</t>
+          <t>-11,39; 17,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,73; 19,49</t>
+          <t>-11,37; 18,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-19,36; 2,7</t>
+          <t>-19,18; 2,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 24,51</t>
+          <t>-2,56; 24,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,2; 10,12</t>
+          <t>-11,59; 8,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 19,72</t>
+          <t>-6,75; 20,98</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 15,79</t>
+          <t>-4,95; 15,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 10,66</t>
+          <t>-8,89; 11,21</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-10,34; 6,42</t>
+          <t>-11,25; 5,81</t>
         </is>
       </c>
     </row>
@@ -1007,12 +1007,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-64,57; 511,22</t>
+          <t>-72,09; 491,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-77,71; 447,26</t>
+          <t>-78,75; 449,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-78,44; —</t>
+          <t>-89,69; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-42,71; 402,1</t>
+          <t>-54,22; 334,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-74,77; 291,4</t>
+          <t>-74,87; 268,93</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-85,4; 179,25</t>
+          <t>-90,88; 170,38</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 22,68</t>
+          <t>-2,31; 22,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 10,65</t>
+          <t>-7,79; 11,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,23; 8,95</t>
+          <t>-8,56; 9,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,34; 14,06</t>
+          <t>-9,7; 14,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,91; 14,82</t>
+          <t>-8,51; 15,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,08; 5,8</t>
+          <t>-15,31; 7,08</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 16,37</t>
+          <t>-1,91; 14,41</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 10,37</t>
+          <t>-4,61; 10,55</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 4,65</t>
+          <t>-8,72; 4,87</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-23,47; 715,98</t>
+          <t>-25,13; 836,87</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-78,73; 334,83</t>
+          <t>-70,47; 390,4</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-78,34; 291,68</t>
+          <t>-76,71; 299,9</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-55,9; 213,23</t>
+          <t>-58,29; 221,33</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-46,67; 215,32</t>
+          <t>-49,18; 246,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-77,4; 113,9</t>
+          <t>-81,39; 116,27</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-19,8; 247,91</t>
+          <t>-18,21; 212,74</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-37,13; 172,23</t>
+          <t>-38,24; 170,62</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-65,97; 79,41</t>
+          <t>-63,67; 81,87</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-16,31; 4,67</t>
+          <t>-15,39; 5,55</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 25,4</t>
+          <t>-4,87; 24,53</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-15,94; 3,87</t>
+          <t>-15,78; 3,85</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 21,87</t>
+          <t>-3,84; 22,76</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-9,8; 15,14</t>
+          <t>-8,54; 15,87</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 15,74</t>
+          <t>-6,99; 16,53</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 10,01</t>
+          <t>-6,48; 9,76</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 16,61</t>
+          <t>-3,33; 16,69</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 7,06</t>
+          <t>-8,11; 7,19</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-90,68; 141,53</t>
+          <t>-87,91; 173,62</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-43,98; 567,01</t>
+          <t>-34,69; 485,07</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-90,04; 114,78</t>
+          <t>-89,53; 98,77</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-55,12; 838,66</t>
+          <t>-50,22; 1066,48</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,51; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-66,2; —</t>
+          <t>-62,79; inf</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-52,58; 186,37</t>
+          <t>-50,86; 187,64</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-29,87; 300,48</t>
+          <t>-31,43; 327,56</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-63,36; 154,11</t>
+          <t>-62,87; 139,95</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-9,87; 13,86</t>
+          <t>-8,83; 14,25</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-12,16; 11,18</t>
+          <t>-11,8; 10,65</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-18,21; 0,01</t>
+          <t>-18,39; -0,45</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 23,2</t>
+          <t>-3,24; 23,34</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-9,26; 18,53</t>
+          <t>-8,6; 17,47</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-15,53; 6,48</t>
+          <t>-15,88; 6,41</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 15,24</t>
+          <t>-2,57; 14,78</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 9,58</t>
+          <t>-7,22; 10,5</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-13,42; 0,81</t>
+          <t>-13,4; 1,19</t>
         </is>
       </c>
     </row>
@@ -1655,27 +1655,27 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-60,29; 259,59</t>
+          <t>-62,48; 276,42</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-82,43; 274,89</t>
+          <t>-82,21; 295,49</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 166,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-41,39; 763,19</t>
+          <t>-28,62; 841,48</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-67,11; —</t>
+          <t>-67,36; 679,98</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1685,17 +1685,17 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-27,69; 263,71</t>
+          <t>-21,62; 276,53</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-57,63; 192,67</t>
+          <t>-53,98; 179,97</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-91,61; 35,15</t>
+          <t>-91,1; 51,37</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 9,07</t>
+          <t>-2,83; 9,05</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 8,83</t>
+          <t>-3,15; 9,05</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 0,33</t>
+          <t>-10,06; 0,07</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>2,35; 16,14</t>
+          <t>2,48; 15,29</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 8,8</t>
+          <t>-3,09; 9,02</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 4,99</t>
+          <t>-5,69; 5,76</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>1,31; 10,42</t>
+          <t>0,78; 9,89</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 7,91</t>
+          <t>-1,65; 7,01</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 0,91</t>
+          <t>-6,5; 0,93</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-25,08; 119,52</t>
+          <t>-24,47; 117,76</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-29,31; 117,96</t>
+          <t>-26,66; 126,22</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-72,21; 11,45</t>
+          <t>-75,18; 4,39</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>18,0; 291,42</t>
+          <t>21,49; 247,0</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-28,68; 155,02</t>
+          <t>-29,39; 144,8</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-50,83; 81,0</t>
+          <t>-48,12; 98,38</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>9,9; 147,18</t>
+          <t>4,6; 126,3</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-12,63; 107,67</t>
+          <t>-17,04; 90,27</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-55,02; 13,24</t>
+          <t>-55,37; 13,2</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16A05-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP16A05-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>10,24</t>
+          <t>15,39</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,26</t>
+          <t>-3,79</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-17,55</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>39,55</t>
+          <t>2,74</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-8,06</t>
+          <t>4,28</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-8,06</t>
+          <t>-9,58</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>9,1</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-1,42</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-11,2</t>
+          <t>-4,02</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-36,1; 82,14</t>
+          <t>1,64; 32,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-35,8; 74,98</t>
+          <t>-12,27; 4,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-66,9; 0,0</t>
+          <t>-8,07; 13,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 77,17</t>
+          <t>-12,99; 15,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-40,45; 0,0</t>
+          <t>-10,42; 21,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-40,88; 0,0</t>
+          <t>-22,02; 0,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 63,01</t>
+          <t>-0,13; 20,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-21,93; 29,34</t>
+          <t>-8,23; 10,83</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-34,64; 0,0</t>
+          <t>-11,89; 3,35</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>58,37%</t>
+          <t>245,28%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>58,46%</t>
+          <t>-60,41%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>21,51%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>490,83%</t>
+          <t>23,21%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>36,21%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-81,02%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>272,39%</t>
+          <t>102,61%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-12,72%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-45,36%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-18,4; 1610,35</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>-66,08; 282,79</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-73,13; 388,09</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,1; 476,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,87; 234,36</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,77; 93,84</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,79</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,44</t>
+          <t>4,29</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-7,84</t>
+          <t>-4,42</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,73</t>
+          <t>9,7</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,14</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,24</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>6,11</t>
+          <t>5,89</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>2,65</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-2,03</t>
+          <t>-2,27</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,39; 17,4</t>
+          <t>-8,51; 14,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,37; 18,98</t>
+          <t>-7,57; 15,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-19,18; 2,86</t>
+          <t>-14,9; 4,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 24,45</t>
+          <t>-1,49; 22,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,59; 8,47</t>
+          <t>-9,3; 10,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 20,98</t>
+          <t>-8,96; 8,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 15,79</t>
+          <t>-2,78; 14,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,89; 11,21</t>
+          <t>-5,28; 11,19</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-11,25; 5,81</t>
+          <t>-8,58; 4,54</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>26,11%</t>
+          <t>17,47%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>32,23%</t>
+          <t>34,88%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-73,39%</t>
+          <t>-35,95%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>175,94%</t>
+          <t>123,58%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-38,77%</t>
+          <t>11,22%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>76,64%</t>
+          <t>-0,99%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>75,05%</t>
+          <t>58,46%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>12,22%</t>
+          <t>26,27%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-24,98%</t>
+          <t>-22,49%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-72,09; 491,85</t>
+          <t>-56,1; 230,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-78,75; 449,61</t>
+          <t>-47,24; 232,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,26; 93,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-89,69; —</t>
+          <t>-32,88; 538,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,17; 313,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,85; 299,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-54,22; 334,13</t>
+          <t>-21,72; 228,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-74,87; 268,93</t>
+          <t>-40,8; 171,73</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-90,88; 170,38</t>
+          <t>-66,67; 75,6</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>9,7</t>
+          <t>9,48</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>3,71</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>3,05</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,15</t>
+          <t>-4,67</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,29</t>
+          <t>9,94</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,74</t>
+          <t>-4,88</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>5,89</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,65</t>
+          <t>6,52</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-1,94</t>
+          <t>-0,93</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 22,88</t>
+          <t>-3,62; 21,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 11,4</t>
+          <t>-8,94; 15,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,56; 9,1</t>
+          <t>-10,26; 15,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,7; 14,31</t>
+          <t>-15,87; 5,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,51; 15,11</t>
+          <t>-2,73; 25,78</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-15,31; 7,08</t>
+          <t>-15,53; 4,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 14,41</t>
+          <t>-5,95; 9,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 10,55</t>
+          <t>-2,93; 16,88</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 4,87</t>
+          <t>-8,87; 7,99</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>123,58%</t>
+          <t>132,21%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>11,22%</t>
+          <t>51,7%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>42,54%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>17,47%</t>
+          <t>-42,42%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>34,88%</t>
+          <t>90,17%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-30,39%</t>
+          <t>-44,28%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>58,46%</t>
+          <t>19,72%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>26,27%</t>
+          <t>69,27%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-19,21%</t>
+          <t>-9,85%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-25,13; 836,87</t>
+          <t>-40,68; inf</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-70,47; 390,4</t>
+          <t>-77,35; 646,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-76,71; 299,9</t>
+          <t>-75,8; 729,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-58,29; 221,33</t>
+          <t>-91,42; 164,36</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-49,18; 246,88</t>
+          <t>-27,68; 533,02</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-81,39; 116,27</t>
+          <t>-87,76; 150,73</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-18,21; 212,74</t>
+          <t>-48,74; 186,58</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-38,24; 170,62</t>
+          <t>-29,25; 292,47</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-63,67; 81,87</t>
+          <t>-67,04; 153,63</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-4,67</t>
+          <t>10,88</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>9,94</t>
+          <t>4,37</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-4,97</t>
+          <t>-2,95</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>9,48</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,71</t>
+          <t>-1,66</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,98</t>
+          <t>-8,63</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,86</t>
+          <t>6,07</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>6,52</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>-6,11</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-15,39; 5,55</t>
+          <t>-2,64; 24,42</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 24,53</t>
+          <t>-8,58; 18,1</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-15,78; 3,85</t>
+          <t>-16,49; 6,22</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 22,76</t>
+          <t>-10,09; 12,86</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,54; 15,87</t>
+          <t>-12,45; 10,39</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 16,53</t>
+          <t>-18,28; -1,12</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 9,76</t>
+          <t>-3,61; 14,74</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 16,69</t>
+          <t>-7,51; 10,35</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-8,11; 7,19</t>
+          <t>-14,63; -0,02</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-42,42%</t>
+          <t>128,51%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>90,17%</t>
+          <t>51,66%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-45,12%</t>
+          <t>-34,82%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>132,21%</t>
+          <t>19,77%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>51,7%</t>
+          <t>-15,45%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>55,52%</t>
+          <t>-80,14%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>19,72%</t>
+          <t>61,65%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>69,27%</t>
+          <t>12,18%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-7,58%</t>
+          <t>-62,0%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-87,91; 173,62</t>
+          <t>-28,15; inf</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-34,69; 485,07</t>
+          <t>-72,94; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-89,53; 98,77</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-50,22; 1066,48</t>
+          <t>-59,04; 261,53</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-80,51; —</t>
+          <t>-83,51; 207,75</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-62,79; inf</t>
+          <t>-100,0; 144,43</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-50,86; 187,64</t>
+          <t>-27,43; 248,56</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-31,43; 327,56</t>
+          <t>-56,5; 191,14</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-62,87; 139,95</t>
+          <t>-91,67; 24,56</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2,13</t>
+          <t>8,95</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-1,66</t>
+          <t>2,78</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-8,45</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>10,88</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>4,37</t>
+          <t>2,82</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-2,88</t>
+          <t>-4,82</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>6,07</t>
+          <t>5,73</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-5,94</t>
+          <t>-2,7</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-8,83; 14,25</t>
+          <t>2,11; 16,15</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-11,8; 10,65</t>
+          <t>-3,3; 8,48</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-18,39; -0,45</t>
+          <t>-6,24; 6,73</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 23,34</t>
+          <t>-2,92; 8,73</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-8,6; 17,47</t>
+          <t>-3,61; 9,33</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-15,88; 6,41</t>
+          <t>-9,75; 0,54</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 14,78</t>
+          <t>1,44; 10,34</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-7,22; 10,5</t>
+          <t>-1,81; 7,19</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-13,4; 1,19</t>
+          <t>-6,33; 1,67</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>19,77%</t>
+          <t>100,58%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-15,45%</t>
+          <t>31,27%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-78,51%</t>
+          <t>-5,1%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>128,51%</t>
+          <t>26,99%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>51,66%</t>
+          <t>27,68%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-34,04%</t>
+          <t>-47,29%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>61,65%</t>
+          <t>59,67%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>12,18%</t>
+          <t>28,63%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-60,34%</t>
+          <t>-28,17%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-62,48; 276,42</t>
+          <t>16,17; 285,28</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-82,21; 295,49</t>
+          <t>-30,36; 135,96</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,45; 105,53</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-28,62; 841,48</t>
+          <t>-24,3; 118,08</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-67,36; 679,98</t>
+          <t>-28,1; 122,12</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,9; 10,21</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-21,62; 276,53</t>
+          <t>12,21; 140,88</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-53,98; 179,97</t>
+          <t>-15,71; 93,45</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-91,1; 51,37</t>
+          <t>-55,13; 20,49</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>2,75</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>2,82</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-4,76</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>8,95</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>2,78</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-0,16</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>5,73</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>2,75</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-2,6</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-2,83; 9,05</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-3,15; 9,05</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-10,06; 0,07</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>2,48; 15,29</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-3,09; 9,02</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-5,69; 5,76</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>0,78; 9,89</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-1,65; 7,01</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-6,5; 0,93</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>26,99%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>27,68%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-46,66%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>100,58%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>31,27%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-1,81%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>59,67%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>28,63%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-27,06%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-24,47; 117,76</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-26,66; 126,22</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-75,18; 4,39</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>21,49; 247,0</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-29,39; 144,8</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-48,12; 98,38</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>4,6; 126,3</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-17,04; 90,27</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-55,37; 13,2</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
